--- a/SA_Scenarios/SA_Scenarios_RC.xlsx
+++ b/SA_Scenarios/SA_Scenarios_RC.xlsx
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.834</v>
+        <v>19.971</v>
       </c>
       <c r="C3" t="n">
-        <v>3.584</v>
+        <v>15.066</v>
       </c>
       <c r="D3" t="n">
-        <v>31.036</v>
+        <v>34.669</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.858</v>
+        <v>35.499</v>
       </c>
       <c r="G3" t="n">
-        <v>27.735</v>
+        <v>33.828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123</v>
+        <v>1.672</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123</v>
+        <v>1.672</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>934.8632000000001</v>
+        <v>41.3514</v>
       </c>
       <c r="L3" t="n">
-        <v>27.735</v>
+        <v>33.828</v>
       </c>
       <c r="M3" t="n">
-        <v>907.1281999999999</v>
+        <v>7.523400000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>13.0104</v>
+        <v>7.523400000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>894.1178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.834</v>
+        <v>18.984</v>
       </c>
       <c r="C3" t="n">
-        <v>3.584</v>
+        <v>12.644</v>
       </c>
       <c r="D3" t="n">
-        <v>31.036</v>
+        <v>39.791</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.858</v>
+        <v>35.403</v>
       </c>
       <c r="G3" t="n">
-        <v>27.735</v>
+        <v>33.363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123</v>
+        <v>2.04</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>661.6581999999999</v>
+        <v>85.3618</v>
       </c>
       <c r="L3" t="n">
-        <v>27.735</v>
+        <v>33.363</v>
       </c>
       <c r="M3" t="n">
-        <v>633.9232</v>
+        <v>51.9988</v>
       </c>
       <c r="N3" t="n">
-        <v>10.5936</v>
+        <v>6.782999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>623.3294</v>
+        <v>45.216</v>
       </c>
     </row>
     <row r="4">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.834</v>
+        <v>24.116</v>
       </c>
       <c r="C3" t="n">
-        <v>3.584</v>
+        <v>14.391</v>
       </c>
       <c r="D3" t="n">
-        <v>31.036</v>
+        <v>35.424</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.858</v>
+        <v>37.37</v>
       </c>
       <c r="G3" t="n">
-        <v>27.735</v>
+        <v>35.087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123</v>
+        <v>2.283</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123</v>
+        <v>2.283</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>525.9713999999999</v>
+        <v>35.087</v>
       </c>
       <c r="L3" t="n">
-        <v>27.735</v>
+        <v>35.087</v>
       </c>
       <c r="M3" t="n">
-        <v>498.2363999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.0964</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>486.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.834</v>
+        <v>24.116</v>
       </c>
       <c r="C3" t="n">
-        <v>3.584</v>
+        <v>14.391</v>
       </c>
       <c r="D3" t="n">
-        <v>31.036</v>
+        <v>35.424</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.858</v>
+        <v>37.37</v>
       </c>
       <c r="G3" t="n">
-        <v>27.735</v>
+        <v>35.087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123</v>
+        <v>2.283</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123</v>
+        <v>2.283</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>77.83040000000001</v>
+        <v>35.087</v>
       </c>
       <c r="L3" t="n">
-        <v>27.735</v>
+        <v>35.087</v>
       </c>
       <c r="M3" t="n">
-        <v>50.0954</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9754</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.294</v>
+        <v>19.971</v>
       </c>
       <c r="C3" t="n">
-        <v>4.098</v>
+        <v>15.066</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.061</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.319</v>
+        <v>37.347</v>
       </c>
       <c r="G3" t="n">
-        <v>26.345</v>
+        <v>33.794</v>
       </c>
       <c r="H3" t="n">
-        <v>0.974</v>
+        <v>3.552</v>
       </c>
       <c r="I3" t="n">
-        <v>0.974</v>
+        <v>3.552</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>552.273</v>
+        <v>33.9318</v>
       </c>
       <c r="L3" t="n">
-        <v>26.345</v>
+        <v>33.794</v>
       </c>
       <c r="M3" t="n">
-        <v>525.9280000000001</v>
+        <v>0.1378</v>
       </c>
       <c r="N3" t="n">
-        <v>28.3726</v>
+        <v>0.1378</v>
       </c>
       <c r="O3" t="n">
-        <v>497.5556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/SA_Scenarios/SA_Scenarios_RC.xlsx
+++ b/SA_Scenarios/SA_Scenarios_RC.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.9124</v>
+        <v>8.98775</v>
       </c>
       <c r="C2" t="n">
-        <v>4.821099999999999</v>
+        <v>4.81645</v>
       </c>
       <c r="D2" t="n">
-        <v>34.37065</v>
+        <v>34.36245</v>
       </c>
       <c r="E2" t="n">
         <v>0.3282</v>
       </c>
       <c r="F2" t="n">
-        <v>29.2354</v>
+        <v>27.96965</v>
       </c>
       <c r="G2" t="n">
-        <v>29.2354</v>
+        <v>27.96965</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>627.8253999999999</v>
+        <v>622.0352</v>
       </c>
       <c r="L2" t="n">
-        <v>29.235</v>
+        <v>27.97</v>
       </c>
       <c r="M2" t="n">
-        <v>598.5904</v>
+        <v>594.0652</v>
       </c>
       <c r="N2" t="n">
-        <v>9.791599999999999</v>
+        <v>9.794799999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>588.7988</v>
+        <v>584.2704</v>
       </c>
     </row>
     <row r="3">
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.499</v>
+        <v>34.21</v>
       </c>
       <c r="G3" t="n">
-        <v>33.828</v>
+        <v>32.538</v>
       </c>
       <c r="H3" t="n">
         <v>1.672</v>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.3514</v>
+        <v>40.0614</v>
       </c>
       <c r="L3" t="n">
-        <v>33.828</v>
+        <v>32.538</v>
       </c>
       <c r="M3" t="n">
         <v>7.523400000000001</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.829</v>
+        <v>40.966</v>
       </c>
       <c r="C4" t="n">
-        <v>11.668</v>
+        <v>11.645</v>
       </c>
       <c r="D4" t="n">
-        <v>40.037</v>
+        <v>40.083</v>
       </c>
       <c r="E4" t="n">
         <v>3.085</v>
       </c>
       <c r="F4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="G4" t="n">
-        <v>40.2606904109589</v>
+        <v>39.01360821917808</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="L4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.8978</v>
+        <v>8.982899999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4.54735</v>
+        <v>4.54085</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0001</v>
+        <v>33.99040000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.76235</v>
+        <v>0.7522</v>
       </c>
       <c r="F2" t="n">
-        <v>29.203</v>
+        <v>27.94</v>
       </c>
       <c r="G2" t="n">
-        <v>29.203</v>
+        <v>27.94</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>397.4568</v>
+        <v>391.9772</v>
       </c>
       <c r="L2" t="n">
-        <v>29.203</v>
+        <v>27.94</v>
       </c>
       <c r="M2" t="n">
-        <v>368.2538</v>
+        <v>364.0371999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>9.590999999999999</v>
+        <v>9.5928</v>
       </c>
       <c r="O2" t="n">
-        <v>358.6627999999999</v>
+        <v>354.4444</v>
       </c>
     </row>
     <row r="3">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.403</v>
+        <v>34.115</v>
       </c>
       <c r="G3" t="n">
-        <v>33.363</v>
+        <v>32.074</v>
       </c>
       <c r="H3" t="n">
         <v>2.04</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>85.3618</v>
+        <v>84.0728</v>
       </c>
       <c r="L3" t="n">
-        <v>33.363</v>
+        <v>32.074</v>
       </c>
       <c r="M3" t="n">
         <v>51.9988</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.672</v>
+        <v>32.898</v>
       </c>
       <c r="C4" t="n">
-        <v>6.726</v>
+        <v>6.722</v>
       </c>
       <c r="D4" t="n">
-        <v>50.181</v>
+        <v>50.187</v>
       </c>
       <c r="E4" t="n">
-        <v>1.782</v>
+        <v>1.661</v>
       </c>
       <c r="F4" t="n">
-        <v>37.331</v>
+        <v>36.111</v>
       </c>
       <c r="G4" t="n">
-        <v>37.33132054794521</v>
+        <v>36.11118082191781</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>148.14</v>
+        <v>146.3526</v>
       </c>
       <c r="L4" t="n">
-        <v>37.331</v>
+        <v>36.111</v>
       </c>
       <c r="M4" t="n">
-        <v>110.809</v>
+        <v>110.2416</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001</v>
+        <v>1.0082</v>
       </c>
       <c r="O4" t="n">
-        <v>109.808</v>
+        <v>109.2334</v>
       </c>
     </row>
   </sheetData>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.7674</v>
+        <v>10.85825</v>
       </c>
       <c r="C2" t="n">
-        <v>4.8137</v>
+        <v>4.805750000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>32.3545</v>
+        <v>32.34480000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9165999999999999</v>
+        <v>0.9064499999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>29.7938</v>
+        <v>28.53235</v>
       </c>
       <c r="G2" t="n">
-        <v>29.7938</v>
+        <v>28.53235</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>78.76180000000001</v>
+        <v>77.23400000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>29.794</v>
+        <v>28.532</v>
       </c>
       <c r="M2" t="n">
-        <v>48.9678</v>
+        <v>48.702</v>
       </c>
       <c r="N2" t="n">
-        <v>7.420399999999999</v>
+        <v>7.4026</v>
       </c>
       <c r="O2" t="n">
-        <v>41.5474</v>
+        <v>41.29940000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.116</v>
+        <v>24.126</v>
       </c>
       <c r="C3" t="n">
-        <v>14.391</v>
+        <v>14.389</v>
       </c>
       <c r="D3" t="n">
-        <v>35.424</v>
+        <v>35.425</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.37</v>
+        <v>36.084</v>
       </c>
       <c r="G3" t="n">
-        <v>35.087</v>
+        <v>33.801</v>
       </c>
       <c r="H3" t="n">
         <v>2.283</v>
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>35.087</v>
+        <v>33.801</v>
       </c>
       <c r="L3" t="n">
-        <v>35.087</v>
+        <v>33.801</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.829</v>
+        <v>40.966</v>
       </c>
       <c r="C4" t="n">
-        <v>11.668</v>
+        <v>11.645</v>
       </c>
       <c r="D4" t="n">
-        <v>39.792</v>
+        <v>39.838</v>
       </c>
       <c r="E4" t="n">
         <v>3.085</v>
       </c>
       <c r="F4" t="n">
-        <v>40.256</v>
+        <v>39.009</v>
       </c>
       <c r="G4" t="n">
-        <v>40.25565205479452</v>
+        <v>39.00857260273973</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.277</v>
+        <v>39.02999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>40.256</v>
+        <v>39.009</v>
       </c>
       <c r="M4" t="n">
         <v>0.021</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.65</v>
+        <v>11.7456</v>
       </c>
       <c r="C2" t="n">
-        <v>4.9871</v>
+        <v>4.97875</v>
       </c>
       <c r="D2" t="n">
-        <v>32.42745</v>
+        <v>32.42345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9165999999999999</v>
+        <v>0.9064499999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>30.0938</v>
+        <v>28.83395</v>
       </c>
       <c r="G2" t="n">
-        <v>30.0938</v>
+        <v>28.83395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>31.3942</v>
+        <v>30.1378</v>
       </c>
       <c r="L2" t="n">
-        <v>30.094</v>
+        <v>28.834</v>
       </c>
       <c r="M2" t="n">
-        <v>1.3002</v>
+        <v>1.3038</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3002</v>
+        <v>1.3038</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.116</v>
+        <v>24.126</v>
       </c>
       <c r="C3" t="n">
-        <v>14.391</v>
+        <v>14.389</v>
       </c>
       <c r="D3" t="n">
-        <v>35.424</v>
+        <v>35.425</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.37</v>
+        <v>36.084</v>
       </c>
       <c r="G3" t="n">
-        <v>35.087</v>
+        <v>33.801</v>
       </c>
       <c r="H3" t="n">
         <v>2.283</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>35.087</v>
+        <v>33.801</v>
       </c>
       <c r="L3" t="n">
-        <v>35.087</v>
+        <v>33.801</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.829</v>
+        <v>40.966</v>
       </c>
       <c r="C4" t="n">
-        <v>11.668</v>
+        <v>11.645</v>
       </c>
       <c r="D4" t="n">
-        <v>40.037</v>
+        <v>40.083</v>
       </c>
       <c r="E4" t="n">
         <v>3.085</v>
       </c>
       <c r="F4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="G4" t="n">
-        <v>40.2606904109589</v>
+        <v>39.01360821917808</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="L4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.3256</v>
+        <v>11.4189</v>
       </c>
       <c r="C2" t="n">
-        <v>4.877149999999999</v>
+        <v>4.8712</v>
       </c>
       <c r="D2" t="n">
-        <v>32.6805</v>
+        <v>32.6733</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7426499999999999</v>
+        <v>0.7324999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>29.98080000000001</v>
+        <v>28.72045</v>
       </c>
       <c r="G2" t="n">
-        <v>29.98080000000001</v>
+        <v>28.72045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.31780000000001</v>
+        <v>70.23179999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>29.981</v>
+        <v>28.72</v>
       </c>
       <c r="M2" t="n">
-        <v>42.3368</v>
+        <v>41.5118</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3104</v>
+        <v>2.3116</v>
       </c>
       <c r="O2" t="n">
-        <v>40.0264</v>
+        <v>39.2002</v>
       </c>
     </row>
     <row r="3">
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.347</v>
+        <v>36.058</v>
       </c>
       <c r="G3" t="n">
-        <v>33.794</v>
+        <v>32.505</v>
       </c>
       <c r="H3" t="n">
         <v>3.552</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>33.9318</v>
+        <v>32.6428</v>
       </c>
       <c r="L3" t="n">
-        <v>33.794</v>
+        <v>32.505</v>
       </c>
       <c r="M3" t="n">
         <v>0.1378</v>
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.829</v>
+        <v>40.966</v>
       </c>
       <c r="C4" t="n">
-        <v>11.668</v>
+        <v>11.645</v>
       </c>
       <c r="D4" t="n">
-        <v>40.037</v>
+        <v>40.083</v>
       </c>
       <c r="E4" t="n">
         <v>3.085</v>
       </c>
       <c r="F4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="G4" t="n">
-        <v>40.2606904109589</v>
+        <v>39.01360821917808</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="L4" t="n">
-        <v>40.261</v>
+        <v>39.014</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/SA_Scenarios/SA_Scenarios_RC.xlsx
+++ b/SA_Scenarios/SA_Scenarios_RC.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.98775</v>
+        <v>9.049249999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4.81645</v>
+        <v>17.7822</v>
       </c>
       <c r="D2" t="n">
-        <v>34.36245</v>
+        <v>22.8443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3282</v>
+        <v>0.17995</v>
       </c>
       <c r="F2" t="n">
-        <v>27.96965</v>
+        <v>3035.89345</v>
       </c>
       <c r="G2" t="n">
-        <v>27.96965</v>
+        <v>2779.61115</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>256.2823000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>256.2823000000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>622.0352</v>
+        <v>5540.6548</v>
       </c>
       <c r="L2" t="n">
-        <v>27.97</v>
+        <v>2779.605</v>
       </c>
       <c r="M2" t="n">
-        <v>594.0652</v>
+        <v>2761.0498</v>
       </c>
       <c r="N2" t="n">
-        <v>9.794799999999999</v>
+        <v>404.4456</v>
       </c>
       <c r="O2" t="n">
-        <v>584.2704</v>
+        <v>2356.6042</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.971</v>
+        <v>10.285</v>
       </c>
       <c r="C3" t="n">
-        <v>15.066</v>
+        <v>24.387</v>
       </c>
       <c r="D3" t="n">
-        <v>34.669</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.21</v>
+        <v>3364.892</v>
       </c>
       <c r="G3" t="n">
-        <v>32.538</v>
+        <v>3004.88</v>
       </c>
       <c r="H3" t="n">
-        <v>1.672</v>
+        <v>360.012</v>
       </c>
       <c r="I3" t="n">
-        <v>1.672</v>
+        <v>217.546</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>142.466</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0614</v>
+        <v>4032.7924</v>
       </c>
       <c r="L3" t="n">
-        <v>32.538</v>
+        <v>3004.932</v>
       </c>
       <c r="M3" t="n">
-        <v>7.523400000000001</v>
+        <v>1027.8604</v>
       </c>
       <c r="N3" t="n">
-        <v>7.523400000000001</v>
+        <v>377.3526</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>650.5078</v>
       </c>
     </row>
     <row r="4">
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.966</v>
+        <v>12.525</v>
       </c>
       <c r="C4" t="n">
-        <v>11.645</v>
+        <v>32.115</v>
       </c>
       <c r="D4" t="n">
-        <v>40.083</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.085</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.014</v>
+        <v>3740.714</v>
       </c>
       <c r="G4" t="n">
-        <v>39.01360821917808</v>
+        <v>3562.738</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>177.976</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>177.976</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.014</v>
+        <v>3710.949399999999</v>
       </c>
       <c r="L4" t="n">
-        <v>39.014</v>
+        <v>3562.738</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>148.2114</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>148.2114</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.982899999999999</v>
+        <v>9.28755</v>
       </c>
       <c r="C2" t="n">
-        <v>4.54085</v>
+        <v>19.03415</v>
       </c>
       <c r="D2" t="n">
-        <v>33.99040000000001</v>
+        <v>20.8032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7522</v>
+        <v>0.2333</v>
       </c>
       <c r="F2" t="n">
-        <v>27.94</v>
+        <v>3102.309650000001</v>
       </c>
       <c r="G2" t="n">
-        <v>27.94</v>
+        <v>2840.6224</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>261.6873</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>261.6873</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>391.9772</v>
+        <v>3481.6576</v>
       </c>
       <c r="L2" t="n">
-        <v>27.94</v>
+        <v>2840.623</v>
       </c>
       <c r="M2" t="n">
-        <v>364.0371999999999</v>
+        <v>641.0346000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5928</v>
+        <v>268.4154</v>
       </c>
       <c r="O2" t="n">
-        <v>354.4444</v>
+        <v>372.6194</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.984</v>
+        <v>11.178</v>
       </c>
       <c r="C3" t="n">
-        <v>12.644</v>
+        <v>26.59</v>
       </c>
       <c r="D3" t="n">
-        <v>39.791</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.115</v>
+        <v>3451.036</v>
       </c>
       <c r="G3" t="n">
-        <v>32.074</v>
+        <v>3193.389</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>257.647</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>177.914</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>79.733</v>
       </c>
       <c r="K3" t="n">
-        <v>84.0728</v>
+        <v>3353.4478</v>
       </c>
       <c r="L3" t="n">
-        <v>32.074</v>
+        <v>3193.416</v>
       </c>
       <c r="M3" t="n">
-        <v>51.9988</v>
+        <v>160.0318</v>
       </c>
       <c r="N3" t="n">
-        <v>6.782999999999999</v>
+        <v>160.0318</v>
       </c>
       <c r="O3" t="n">
-        <v>45.216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.898</v>
+        <v>13.043</v>
       </c>
       <c r="C4" t="n">
-        <v>6.722</v>
+        <v>30.549</v>
       </c>
       <c r="D4" t="n">
-        <v>50.187</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.661</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.111</v>
+        <v>3773.766</v>
       </c>
       <c r="G4" t="n">
-        <v>36.11118082191781</v>
+        <v>3562.275</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>211.491</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.535</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>127.956</v>
       </c>
       <c r="K4" t="n">
-        <v>146.3526</v>
+        <v>3633.3816</v>
       </c>
       <c r="L4" t="n">
-        <v>36.111</v>
+        <v>3562.275</v>
       </c>
       <c r="M4" t="n">
-        <v>110.2416</v>
+        <v>71.1066</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0082</v>
+        <v>71.1066</v>
       </c>
       <c r="O4" t="n">
-        <v>109.2334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.85825</v>
+        <v>9.44125</v>
       </c>
       <c r="C2" t="n">
-        <v>4.805750000000001</v>
+        <v>18.6632</v>
       </c>
       <c r="D2" t="n">
-        <v>32.34480000000001</v>
+        <v>19.68675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9064499999999999</v>
+        <v>0.2268</v>
       </c>
       <c r="F2" t="n">
-        <v>28.53235</v>
+        <v>3082.14175</v>
       </c>
       <c r="G2" t="n">
-        <v>28.53235</v>
+        <v>2835.677000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>246.46485</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>246.46485</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.23400000000001</v>
+        <v>3660.9488</v>
       </c>
       <c r="L2" t="n">
-        <v>28.532</v>
+        <v>2835.676</v>
       </c>
       <c r="M2" t="n">
-        <v>48.702</v>
+        <v>825.2728</v>
       </c>
       <c r="N2" t="n">
-        <v>7.4026</v>
+        <v>347.7128</v>
       </c>
       <c r="O2" t="n">
-        <v>41.29940000000001</v>
+        <v>477.5599999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.126</v>
+        <v>11.178</v>
       </c>
       <c r="C3" t="n">
-        <v>14.389</v>
+        <v>26.59</v>
       </c>
       <c r="D3" t="n">
-        <v>35.425</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>36.084</v>
+        <v>3431.718</v>
       </c>
       <c r="G3" t="n">
-        <v>33.801</v>
+        <v>3193.389</v>
       </c>
       <c r="H3" t="n">
-        <v>2.283</v>
+        <v>238.33</v>
       </c>
       <c r="I3" t="n">
-        <v>2.283</v>
+        <v>158.597</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>79.733</v>
       </c>
       <c r="K3" t="n">
-        <v>33.801</v>
+        <v>3430.7164</v>
       </c>
       <c r="L3" t="n">
-        <v>33.801</v>
+        <v>3193.416</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>237.3004</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>237.3004</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.966</v>
+        <v>13.043</v>
       </c>
       <c r="C4" t="n">
-        <v>11.645</v>
+        <v>30.549</v>
       </c>
       <c r="D4" t="n">
-        <v>39.838</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.085</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.009</v>
+        <v>3773.766</v>
       </c>
       <c r="G4" t="n">
-        <v>39.00857260273973</v>
+        <v>3562.275</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>211.491</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.535</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>127.956</v>
       </c>
       <c r="K4" t="n">
-        <v>39.02999999999999</v>
+        <v>3679.8292</v>
       </c>
       <c r="L4" t="n">
-        <v>39.009</v>
+        <v>3562.275</v>
       </c>
       <c r="M4" t="n">
-        <v>0.021</v>
+        <v>117.5542</v>
       </c>
       <c r="N4" t="n">
-        <v>0.021</v>
+        <v>117.5542</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.7456</v>
+        <v>9.757899999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4.97875</v>
+        <v>18.88815</v>
       </c>
       <c r="D2" t="n">
-        <v>32.42345</v>
+        <v>22.44845</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9064499999999999</v>
+        <v>0.2044</v>
       </c>
       <c r="F2" t="n">
-        <v>28.83395</v>
+        <v>3166.36275</v>
       </c>
       <c r="G2" t="n">
-        <v>28.83395</v>
+        <v>2901.592700000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>264.77005</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>264.77005</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>30.1378</v>
+        <v>3015.0798</v>
       </c>
       <c r="L2" t="n">
-        <v>28.834</v>
+        <v>2901.595</v>
       </c>
       <c r="M2" t="n">
-        <v>1.3038</v>
+        <v>113.4848</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3038</v>
+        <v>113.4848</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.126</v>
+        <v>11.178</v>
       </c>
       <c r="C3" t="n">
-        <v>14.389</v>
+        <v>26.59</v>
       </c>
       <c r="D3" t="n">
-        <v>35.425</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>36.084</v>
+        <v>3471.9</v>
       </c>
       <c r="G3" t="n">
-        <v>33.801</v>
+        <v>3193.389</v>
       </c>
       <c r="H3" t="n">
-        <v>2.283</v>
+        <v>278.511</v>
       </c>
       <c r="I3" t="n">
-        <v>2.283</v>
+        <v>198.778</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>79.733</v>
       </c>
       <c r="K3" t="n">
-        <v>33.801</v>
+        <v>3269.9956</v>
       </c>
       <c r="L3" t="n">
-        <v>33.801</v>
+        <v>3193.416</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>76.5796</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>76.5796</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.966</v>
+        <v>13.043</v>
       </c>
       <c r="C4" t="n">
-        <v>11.645</v>
+        <v>30.549</v>
       </c>
       <c r="D4" t="n">
-        <v>40.083</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.085</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.014</v>
+        <v>3773.766</v>
       </c>
       <c r="G4" t="n">
-        <v>39.01360821917808</v>
+        <v>3562.275</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>211.491</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.535</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>127.956</v>
       </c>
       <c r="K4" t="n">
-        <v>39.014</v>
+        <v>3584.446</v>
       </c>
       <c r="L4" t="n">
-        <v>39.014</v>
+        <v>3562.275</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>22.171</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>22.171</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.4189</v>
+        <v>9.612449999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4.8712</v>
+        <v>17.3269</v>
       </c>
       <c r="D2" t="n">
-        <v>32.6733</v>
+        <v>22.2119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7324999999999999</v>
+        <v>0.12855</v>
       </c>
       <c r="F2" t="n">
-        <v>28.72045</v>
+        <v>3095.8448</v>
       </c>
       <c r="G2" t="n">
-        <v>28.72045</v>
+        <v>2822.131950000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>273.7129</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>273.7129</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.23179999999999</v>
+        <v>4214.8072</v>
       </c>
       <c r="L2" t="n">
-        <v>28.72</v>
+        <v>2822.127</v>
       </c>
       <c r="M2" t="n">
-        <v>41.5118</v>
+        <v>1392.6802</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3116</v>
+        <v>175.3342</v>
       </c>
       <c r="O2" t="n">
-        <v>39.2002</v>
+        <v>1217.3462</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.971</v>
+        <v>11.416</v>
       </c>
       <c r="C3" t="n">
-        <v>15.066</v>
+        <v>24.286</v>
       </c>
       <c r="D3" t="n">
-        <v>33.061</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>36.058</v>
+        <v>3371.656</v>
       </c>
       <c r="G3" t="n">
-        <v>32.505</v>
+        <v>3131.98</v>
       </c>
       <c r="H3" t="n">
-        <v>3.552</v>
+        <v>239.677</v>
       </c>
       <c r="I3" t="n">
-        <v>3.552</v>
+        <v>214.095</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>25.582</v>
       </c>
       <c r="K3" t="n">
-        <v>32.6428</v>
+        <v>3672.6582</v>
       </c>
       <c r="L3" t="n">
-        <v>32.505</v>
+        <v>3132.029</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1378</v>
+        <v>540.6292000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1378</v>
+        <v>133.935</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>406.694</v>
       </c>
     </row>
     <row r="4">
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.966</v>
+        <v>12.747</v>
       </c>
       <c r="C4" t="n">
-        <v>11.645</v>
+        <v>23.495</v>
       </c>
       <c r="D4" t="n">
-        <v>40.083</v>
+        <v>8.305</v>
       </c>
       <c r="E4" t="n">
-        <v>3.085</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.014</v>
+        <v>3599.422</v>
       </c>
       <c r="G4" t="n">
-        <v>39.01360821917808</v>
+        <v>3317.981</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>281.441</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>187.912</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.529</v>
       </c>
       <c r="K4" t="n">
-        <v>39.014</v>
+        <v>3698.553200000001</v>
       </c>
       <c r="L4" t="n">
-        <v>39.014</v>
+        <v>3317.981000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>380.5722</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>84.18639999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>296.3858</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>